--- a/document/灵豹智能画面接口开发列表.xlsx
+++ b/document/灵豹智能画面接口开发列表.xlsx
@@ -1,21 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10309"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chokkint/Documents/HBuilderProjects/LBAI/document/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74729C35-FD3E-8F4D-BAD0-2830CDD1A63A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="32400" windowHeight="18015" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32400" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="接口列表" sheetId="1" r:id="rId1"/>
     <sheet name="Mango数据结构" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="86">
   <si>
     <t>序号</t>
   </si>
@@ -170,139 +184,207 @@
     <t>login_id</t>
   </si>
   <si>
+    <t>获取业务趋势统计图</t>
+  </si>
+  <si>
+    <t>显示频度是什么？日/月？显示数量多少？</t>
+  </si>
+  <si>
+    <t>客户详情</t>
+  </si>
+  <si>
+    <t>cust_id</t>
+  </si>
+  <si>
+    <t>灵豹分</t>
+  </si>
+  <si>
     <t>ERROR_CODE:SUCCESS/ERROR
 ERROR_MESSAGE:...
-DATASET:统计数值(潜在客户/待联系/已联系，低潜力/中潜力/高潜力)</t>
-  </si>
-  <si>
-    <t>获取业务趋势统计图</t>
+DATASET:灵豹分（分值/标签）</t>
+  </si>
+  <si>
+    <t>日程计划</t>
+  </si>
+  <si>
+    <t>行动推荐</t>
+  </si>
+  <si>
+    <t>交互记录</t>
   </si>
   <si>
     <t>ERROR_CODE:SUCCESS/ERROR
 ERROR_MESSAGE:...
-DATASET:统计值(行动推荐/计划日程/成交量)</t>
-  </si>
-  <si>
-    <t>显示频度是什么？日/月？显示数量多少？</t>
-  </si>
-  <si>
-    <t>客户详情</t>
-  </si>
-  <si>
-    <t>客户基本信息取得</t>
-  </si>
-  <si>
-    <t>cust_id</t>
+DATASET:全部过往日程</t>
+  </si>
+  <si>
+    <t>保险情况</t>
+  </si>
+  <si>
+    <t>ERROR_CODE:SUCCESS/ERROR
+ERROR_MESSAGE:...
+DATASET:全部已购买保险</t>
+  </si>
+  <si>
+    <t>客户信息编辑</t>
+  </si>
+  <si>
+    <t>ERROR_CODE:SUCCESS/ERROR
+ERROR_MESSAGE:...
+DATASET:客户全部信息</t>
+  </si>
+  <si>
+    <t>lay1</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>Py</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>SalesList&lt;ListMap&gt;</t>
+  </si>
+  <si>
+    <t>Spring Mybatis</t>
+  </si>
+  <si>
+    <t>Mysql,mongoDB</t>
+  </si>
+  <si>
+    <t>Lay2</t>
+  </si>
+  <si>
+    <t>SaleID</t>
+  </si>
+  <si>
+    <t>CustomeList&lt;listMap&gt;</t>
+  </si>
+  <si>
+    <t>Lay3</t>
+  </si>
+  <si>
+    <t>CustID</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Socre</t>
+  </si>
+  <si>
+    <t>LabelList</t>
+  </si>
+  <si>
+    <t>ActionList</t>
+  </si>
+  <si>
+    <t>﻿/sqldb/getActSuggestCount/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ERROR_CODE:SUCCESS/ERROR
+ERROR_MESSAGE:...
+DATASET:统计值(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体 (正文)"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>行动推荐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/计划日程/成交量)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ERROR_CODE:SUCCESS/ERROR
+ERROR_MESSAGE:...
+DATASET:统计数值(潜在客户/待联系/已联系，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>低潜力/中潜力/高潜力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ERROR_CODE:SUCCESS/ERROR
 ERROR_MESSAGE:...
 DATASET:基本信息（名字/微信昵称/头像/导入方式/导入时间/最后交互时间/手机号/地址）</t>
-  </si>
-  <si>
-    <t>灵豹分</t>
-  </si>
-  <si>
-    <t>ERROR_CODE:SUCCESS/ERROR
-ERROR_MESSAGE:...
-DATASET:灵豹分（分值/标签）</t>
-  </si>
-  <si>
-    <t>日程计划</t>
-  </si>
-  <si>
-    <t>行动推荐</t>
-  </si>
-  <si>
-    <t>交互记录</t>
-  </si>
-  <si>
-    <t>ERROR_CODE:SUCCESS/ERROR
-ERROR_MESSAGE:...
-DATASET:全部过往日程</t>
-  </si>
-  <si>
-    <t>保险情况</t>
-  </si>
-  <si>
-    <t>ERROR_CODE:SUCCESS/ERROR
-ERROR_MESSAGE:...
-DATASET:全部已购买保险</t>
-  </si>
-  <si>
-    <t>客户信息编辑</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户基本信息取得</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>客户全部信息</t>
-  </si>
-  <si>
-    <t>ERROR_CODE:SUCCESS/ERROR
-ERROR_MESSAGE:...
-DATASET:客户全部信息</t>
-  </si>
-  <si>
-    <t>lay1</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t>Py</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>SalesList&lt;ListMap&gt;</t>
-  </si>
-  <si>
-    <t>Spring Mybatis</t>
-  </si>
-  <si>
-    <t>Mysql,mongoDB</t>
-  </si>
-  <si>
-    <t>Lay2</t>
-  </si>
-  <si>
-    <t>SaleID</t>
-  </si>
-  <si>
-    <t>CustomeList&lt;listMap&gt;</t>
-  </si>
-  <si>
-    <t>Lay3</t>
-  </si>
-  <si>
-    <t>CustID</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Socre</t>
-  </si>
-  <si>
-    <t>LabelList</t>
-  </si>
-  <si>
-    <t>ActionList</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿/sqldb/queryByCustomerID/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新客户信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿/sqldb/updateCustomerInfo/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿/sqldb/getScoreByCustId/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿/sqldb/getActSuggestByCustId/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,6 +396,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -321,6 +404,7 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -328,6 +412,7 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -335,161 +420,37 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体 (正文)"/>
+      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体 (正文)"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -502,194 +463,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -712,253 +487,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -987,62 +520,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1329,32 +819,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="54" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="8.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9" style="3"/>
+    <col min="1" max="1" width="8.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="61" style="3" customWidth="1"/>
-    <col min="4" max="4" width="32.25" style="3" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="40.375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="39.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="32.1640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="40.33203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="73.6640625" style="3" customWidth="1"/>
     <col min="8" max="8" width="41.5" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" s="2" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1380,7 +870,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:8">
+    <row r="2" spans="1:8" ht="48">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1402,7 +892,7 @@
       </c>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" customHeight="1" spans="1:8">
+    <row r="3" spans="1:8" ht="48">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1424,7 +914,7 @@
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" customHeight="1" spans="1:8">
+    <row r="4" spans="1:8" ht="48">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1446,7 +936,7 @@
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" customHeight="1" spans="1:8">
+    <row r="5" spans="1:8" ht="48">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1468,7 +958,7 @@
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" customHeight="1" spans="1:8">
+    <row r="6" spans="1:8" ht="48">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1486,7 +976,7 @@
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" customHeight="1" spans="1:8">
+    <row r="7" spans="1:8" ht="48">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1504,7 +994,7 @@
       </c>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" customHeight="1" spans="1:8">
+    <row r="8" spans="1:8" ht="48">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1522,7 +1012,7 @@
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" customHeight="1" spans="1:8">
+    <row r="9" spans="1:8" ht="48">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1542,7 +1032,7 @@
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" customHeight="1" spans="1:8">
+    <row r="10" spans="1:8" ht="48">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1562,7 +1052,7 @@
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" customHeight="1" spans="1:8">
+    <row r="11" spans="1:8" ht="48">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1578,79 +1068,85 @@
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="9" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" customHeight="1" spans="1:8">
+    <row r="12" spans="1:8" ht="48">
       <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="7"/>
+        <v>44</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>75</v>
+      </c>
       <c r="E12" s="9" t="s">
         <v>43</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="9" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" ht="71.25" spans="1:8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="64">
       <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="7"/>
+        <v>79</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" customHeight="1" spans="1:8">
+    <row r="14" spans="1:8" ht="48">
       <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="7"/>
+        <v>48</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="E14" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" customHeight="1" spans="1:8">
+    <row r="15" spans="1:8" ht="48">
       <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9" t="s">
@@ -1658,17 +1154,19 @@
       </c>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" customHeight="1" spans="1:8">
+    <row r="16" spans="1:8" ht="48">
       <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="7"/>
+        <v>51</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>85</v>
+      </c>
       <c r="E16" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9" t="s">
@@ -1676,81 +1174,82 @@
       </c>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" customHeight="1" spans="1:8">
+    <row r="17" spans="1:8" ht="48">
       <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="7"/>
+        <v>52</v>
+      </c>
+      <c r="D17" s="10"/>
       <c r="E17" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" customHeight="1" spans="1:8">
+    <row r="18" spans="1:8" ht="48">
       <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" customHeight="1" spans="1:8">
+    <row r="19" spans="1:8" ht="48">
       <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="7"/>
+        <v>82</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="E19" s="7" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H19" s="9"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B5:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
-    <row r="5" ht="14.25" spans="2:11">
+    <row r="5" spans="2:11" ht="15">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1764,7 +1263,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" ht="14.25" spans="2:11">
+    <row r="6" spans="2:11" ht="15">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1776,9 +1275,9 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" ht="14.25" spans="2:11">
+    <row r="7" spans="2:11" ht="15">
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1790,12 +1289,12 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" ht="14.25" spans="2:11">
+    <row r="8" spans="2:11" ht="15">
       <c r="B8" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1804,16 +1303,16 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" ht="14.25" spans="2:11">
+    <row r="9" spans="2:11" ht="15">
       <c r="B9" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1822,11 +1321,11 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" ht="14.25" spans="2:11">
+    <row r="10" spans="2:11" ht="15">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1836,15 +1335,15 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" ht="14.25" spans="2:11">
+    <row r="11" spans="2:11" ht="15">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1854,14 +1353,14 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" ht="14.25" spans="2:11">
+    <row r="12" spans="2:11" ht="15">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1870,14 +1369,14 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" ht="14.25" spans="2:11">
+    <row r="13" spans="2:11" ht="15">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1886,7 +1385,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" ht="14.25" spans="2:11">
+    <row r="14" spans="2:11" ht="15">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1898,12 +1397,12 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" ht="14.25" spans="2:11">
+    <row r="15" spans="2:11" ht="15">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1912,15 +1411,15 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" ht="14.25" spans="2:11">
+    <row r="16" spans="2:11" ht="15">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1928,12 +1427,12 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" ht="14.25" spans="2:11">
+    <row r="17" spans="2:11" ht="15">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -1942,13 +1441,13 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" ht="14.25" spans="2:11">
+    <row r="18" spans="2:11" ht="15">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1956,13 +1455,13 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" ht="14.25" spans="2:11">
+    <row r="19" spans="2:11" ht="15">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1970,13 +1469,13 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" ht="14.25" spans="2:11">
+    <row r="20" spans="2:11" ht="15">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1984,7 +1483,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" ht="14.25" spans="2:11">
+    <row r="21" spans="2:11" ht="15">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1996,7 +1495,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" ht="14.25" spans="2:11">
+    <row r="22" spans="2:11" ht="15">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2009,7 +1508,7 @@
       <c r="K22" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/document/灵豹智能画面接口开发列表.xlsx
+++ b/document/灵豹智能画面接口开发列表.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10309"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chokkint/Documents/HBuilderProjects/LBAI/document/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBuilderProjects\LBAI\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74729C35-FD3E-8F4D-BAD0-2830CDD1A63A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32400" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32400" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="接口列表" sheetId="1" r:id="rId1"/>
     <sheet name="Mango数据结构" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="100">
   <si>
     <t>序号</t>
   </si>
@@ -379,11 +378,79 @@
     <t>﻿/sqldb/getActSuggestByCustId/</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>客户分析</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户健康度信息获得</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户画像-性别数据分布</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户画像-城市数据分布</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户画像-年龄数据分布</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户画像-资产数据分布</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户特征数据</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_CODE:SUCCESS/ERROR
+ERROR_MESSAGE:...
+DATASET:评分/描述/建议</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_CODE:SUCCESS/ERROR
+ERROR_MESSAGE:...
+DATASET:{男:,女:}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_CODE:SUCCESS/ERROR
+ERROR_MESSAGE:...
+DATASET:估计数量前几的城市</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_CODE:SUCCESS/ERROR
+ERROR_MESSAGE:...
+DATASET:估计是年龄段统计</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_CODE:SUCCESS/ERROR
+ERROR_MESSAGE:...
+DATASET:估计是资产分段统计</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_CODE:SUCCESS/ERROR
+ERROR_MESSAGE:...
+DATASET:[描述性语句或者标签]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -824,23 +891,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.36328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="39.36328125" style="3" customWidth="1"/>
     <col min="3" max="3" width="61" style="3" customWidth="1"/>
-    <col min="4" max="4" width="32.1640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="40.33203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="73.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="41.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="32.1796875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="25.36328125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="40.36328125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="73.6328125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="41.453125" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -870,7 +937,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="48">
+    <row r="2" spans="1:8" ht="45">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -892,7 +959,7 @@
       </c>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" ht="48">
+    <row r="3" spans="1:8" ht="45">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -914,7 +981,7 @@
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" ht="48">
+    <row r="4" spans="1:8" ht="45">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -936,7 +1003,7 @@
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" ht="48">
+    <row r="5" spans="1:8" ht="45">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -958,7 +1025,7 @@
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="48">
+    <row r="6" spans="1:8" ht="45">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -976,7 +1043,7 @@
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" ht="48">
+    <row r="7" spans="1:8" ht="45">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -994,7 +1061,7 @@
       </c>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" ht="48">
+    <row r="8" spans="1:8" ht="60">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1012,7 +1079,7 @@
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" ht="48">
+    <row r="9" spans="1:8" ht="45">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1032,7 +1099,7 @@
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" ht="48">
+    <row r="10" spans="1:8" ht="45">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1052,7 +1119,7 @@
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" ht="48">
+    <row r="11" spans="1:8" ht="47">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1072,7 +1139,7 @@
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" ht="48">
+    <row r="12" spans="1:8" ht="47">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1094,7 +1161,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="64">
+    <row r="13" spans="1:8" ht="60">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1116,7 +1183,7 @@
       </c>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:8" ht="48">
+    <row r="14" spans="1:8" ht="45">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -1136,7 +1203,7 @@
       </c>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" spans="1:8" ht="48">
+    <row r="15" spans="1:8" ht="45">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -1154,7 +1221,7 @@
       </c>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" spans="1:8" ht="48">
+    <row r="16" spans="1:8" ht="45">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -1174,7 +1241,7 @@
       </c>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="1:8" ht="48">
+    <row r="17" spans="1:8" ht="45">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -1192,7 +1259,7 @@
       </c>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="1:8" ht="48">
+    <row r="18" spans="1:8" ht="45">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -1210,7 +1277,7 @@
       </c>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" spans="1:8" ht="48">
+    <row r="19" spans="1:8" ht="45">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -1231,6 +1298,116 @@
         <v>57</v>
       </c>
       <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" ht="45">
+      <c r="A20" s="6">
+        <v>12</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8" ht="45">
+      <c r="A21" s="6">
+        <v>13</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" ht="45">
+      <c r="A22" s="6">
+        <v>14</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:8" ht="45">
+      <c r="A23" s="6">
+        <v>15</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="1:8" ht="45">
+      <c r="A24" s="6">
+        <v>16</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="1:8" ht="45">
+      <c r="A25" s="6">
+        <v>17</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="H25" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -1240,14 +1417,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="5" spans="2:11" ht="15">
       <c r="B5" s="1"/>

--- a/document/灵豹智能画面接口开发列表.xlsx
+++ b/document/灵豹智能画面接口开发列表.xlsx
@@ -1,34 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBuilderProjects\LBAI\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chokkint/Documents/HBuilderProjects/LBAI/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11701FF-2514-6541-AC61-185C7F0656DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32400" windowHeight="15540"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="接口列表" sheetId="1" r:id="rId1"/>
     <sheet name="Mango数据结构" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="104">
   <si>
     <t>序号</t>
   </si>
@@ -317,6 +310,112 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>ERROR_CODE:SUCCESS/ERROR
+ERROR_MESSAGE:...
+DATASET:基本信息（名字/微信昵称/头像/导入方式/导入时间/最后交互时间/手机号/地址）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户基本信息取得</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户全部信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿/sqldb/queryByCustomerID/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新客户信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿/sqldb/updateCustomerInfo/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿/sqldb/getScoreByCustId/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>﻿/sqldb/getActSuggestByCustId/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户分析</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户健康度信息获得</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户画像-性别数据分布</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户画像-城市数据分布</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户画像-年龄数据分布</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户画像-资产数据分布</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户特征数据</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_CODE:SUCCESS/ERROR
+ERROR_MESSAGE:...
+DATASET:评分/描述/建议</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_CODE:SUCCESS/ERROR
+ERROR_MESSAGE:...
+DATASET:{男:,女:}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_CODE:SUCCESS/ERROR
+ERROR_MESSAGE:...
+DATASET:估计数量前几的城市</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_CODE:SUCCESS/ERROR
+ERROR_MESSAGE:...
+DATASET:估计是年龄段统计</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_CODE:SUCCESS/ERROR
+ERROR_MESSAGE:...
+DATASET:估计是资产分段统计</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_CODE:SUCCESS/ERROR
+ERROR_MESSAGE:...
+DATASET:[描述性语句或者标签]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>ERROR_CODE:SUCCESS/ERROR
 ERROR_MESSAGE:...
@@ -326,10 +425,49 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF0070C0"/>
-        <rFont val="宋体 (正文)"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>低潜力/中潜力/高潜力</t>
+      <t>低潜力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中潜力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高潜力</t>
     </r>
     <r>
       <rPr>
@@ -345,113 +483,24 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>ERROR_CODE:SUCCESS/ERROR
-ERROR_MESSAGE:...
-DATASET:基本信息（名字/微信昵称/头像/导入方式/导入时间/最后交互时间/手机号/地址）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户基本信息取得</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户全部信息</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿/sqldb/queryByCustomerID/</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新客户信息</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿/sqldb/updateCustomerInfo/</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿/sqldb/getScoreByCustId/</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>﻿/sqldb/getActSuggestByCustId/</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户分析</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户健康度信息获得</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户画像-性别数据分布</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户画像-城市数据分布</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户画像-年龄数据分布</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户画像-资产数据分布</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户特征数据</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_CODE:SUCCESS/ERROR
-ERROR_MESSAGE:...
-DATASET:评分/描述/建议</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_CODE:SUCCESS/ERROR
-ERROR_MESSAGE:...
-DATASET:{男:,女:}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_CODE:SUCCESS/ERROR
-ERROR_MESSAGE:...
-DATASET:估计数量前几的城市</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_CODE:SUCCESS/ERROR
-ERROR_MESSAGE:...
-DATASET:估计是年龄段统计</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_CODE:SUCCESS/ERROR
-ERROR_MESSAGE:...
-DATASET:估计是资产分段统计</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR_CODE:SUCCESS/ERROR
-ERROR_MESSAGE:...
-DATASET:[描述性语句或者标签]</t>
+    <t>ok（50%）潜在客户，待联系，已联系需要讨论</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要讨论</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">行程推荐及推荐日程完成，"上次互动"需要讨论,work_date是不是取当天日期而不是传参
+</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -505,16 +554,23 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF0070C0"/>
-      <name val="宋体 (正文)"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Menlo"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -587,7 +643,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -606,7 +662,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -648,7 +704,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -681,9 +737,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -716,6 +789,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -891,27 +981,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="8.36328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="39.36328125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="61" style="3" customWidth="1"/>
-    <col min="4" max="4" width="32.1796875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="25.36328125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="40.36328125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="73.6328125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="41.453125" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="3"/>
+    <col min="4" max="4" width="32.1640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" style="3" customWidth="1"/>
+    <col min="6" max="7" width="40.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="73.6640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="41.5" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1">
+    <row r="1" spans="1:9" s="2" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -930,14 +1020,15 @@
       <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="45">
+    <row r="2" spans="1:9" ht="48">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -955,11 +1046,14 @@
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" ht="45">
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" ht="48">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -977,11 +1071,14 @@
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" ht="45">
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" ht="48">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -998,12 +1095,13 @@
         <v>20</v>
       </c>
       <c r="F4" s="7"/>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="7"/>
+      <c r="H4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" ht="45">
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" ht="48">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1020,12 +1118,15 @@
         <v>24</v>
       </c>
       <c r="F5" s="7"/>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" ht="45">
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" ht="48">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1038,12 +1139,13 @@
         <v>24</v>
       </c>
       <c r="F6" s="7"/>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="7"/>
+      <c r="H6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" ht="45">
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" ht="48">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1056,12 +1158,13 @@
         <v>29</v>
       </c>
       <c r="F7" s="7"/>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="7"/>
+      <c r="H7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" ht="60">
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" ht="48">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1074,12 +1177,13 @@
         <v>32</v>
       </c>
       <c r="F8" s="7"/>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="7"/>
+      <c r="H8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" ht="45">
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" ht="48">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1094,12 +1198,13 @@
       <c r="F9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="7"/>
+      <c r="H9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" ht="45">
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" ht="64">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1115,11 +1220,14 @@
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" ht="47">
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" ht="49">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1134,12 +1242,15 @@
         <v>43</v>
       </c>
       <c r="F11" s="7"/>
-      <c r="G11" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" ht="47">
+      <c r="G11" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" ht="49">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1154,14 +1265,17 @@
         <v>43</v>
       </c>
       <c r="F12" s="7"/>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H12" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="I12" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="60">
+    <row r="13" spans="1:9" ht="64">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1169,21 +1283,22 @@
         <v>46</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>47</v>
       </c>
       <c r="F13" s="9"/>
-      <c r="G13" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" ht="45">
+      <c r="G13" s="9"/>
+      <c r="H13" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="1:9" ht="48">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -1192,18 +1307,19 @@
         <v>48</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>47</v>
       </c>
       <c r="F14" s="9"/>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="9"/>
+      <c r="H14" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="1:8" ht="45">
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="1:9" ht="48">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -1216,12 +1332,13 @@
         <v>47</v>
       </c>
       <c r="F15" s="9"/>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="9"/>
+      <c r="H15" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="9"/>
-    </row>
-    <row r="16" spans="1:8" ht="45">
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="1:9" ht="48">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -1230,18 +1347,19 @@
         <v>51</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>47</v>
       </c>
       <c r="F16" s="9"/>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="9"/>
+      <c r="H16" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" spans="1:8" ht="45">
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="1:9" ht="48">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -1254,12 +1372,13 @@
         <v>47</v>
       </c>
       <c r="F17" s="9"/>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="9"/>
+      <c r="H17" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="1:8" ht="45">
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="1:9" ht="48">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -1272,12 +1391,13 @@
         <v>47</v>
       </c>
       <c r="F18" s="9"/>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="9"/>
+      <c r="H18" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="1:8" ht="45">
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="1:9" ht="48">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -1285,129 +1405,136 @@
         <v>56</v>
       </c>
       <c r="C19" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>83</v>
-      </c>
       <c r="E19" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F19" s="9"/>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="9"/>
+      <c r="H19" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20" spans="1:8" ht="45">
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" spans="1:9" ht="48">
       <c r="A20" s="6">
         <v>12</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F20" s="9"/>
-      <c r="G20" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="H20" s="9"/>
-    </row>
-    <row r="21" spans="1:8" ht="45">
+      <c r="G20" s="9"/>
+      <c r="H20" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="1:9" ht="48">
       <c r="A21" s="6">
         <v>13</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F21" s="9"/>
-      <c r="G21" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="H21" s="9"/>
-    </row>
-    <row r="22" spans="1:8" ht="45">
+      <c r="G21" s="9"/>
+      <c r="H21" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" spans="1:9" ht="48">
       <c r="A22" s="6">
         <v>14</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F22" s="9"/>
-      <c r="G22" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" spans="1:8" ht="45">
+      <c r="G22" s="9"/>
+      <c r="H22" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" spans="1:9" ht="48">
       <c r="A23" s="6">
         <v>15</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F23" s="9"/>
-      <c r="G23" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="H23" s="9"/>
-    </row>
-    <row r="24" spans="1:8" ht="45">
+      <c r="G23" s="9"/>
+      <c r="H23" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="1:9" ht="48">
       <c r="A24" s="6">
         <v>16</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F24" s="9"/>
-      <c r="G24" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H24" s="9"/>
-    </row>
-    <row r="25" spans="1:8" ht="45">
+      <c r="G24" s="9"/>
+      <c r="H24" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I24" s="9"/>
+    </row>
+    <row r="25" spans="1:9" ht="48">
       <c r="A25" s="6">
         <v>17</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F25" s="9"/>
-      <c r="G25" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I25" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -1417,14 +1544,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B5:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="5" spans="2:11" ht="15">
       <c r="B5" s="1"/>

--- a/document/灵豹智能画面接口开发列表.xlsx
+++ b/document/灵豹智能画面接口开发列表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chokkint/Documents/HBuilderProjects/LBAI/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11701FF-2514-6541-AC61-185C7F0656DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E79340B-DEB6-A845-92B0-A905E3F2CE2B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="106">
   <si>
     <t>序号</t>
   </si>
@@ -183,9 +183,6 @@
   </si>
   <si>
     <t>客户详情</t>
-  </si>
-  <si>
-    <t>cust_id</t>
   </si>
   <si>
     <t>灵豹分</t>
@@ -493,6 +490,18 @@
   <si>
     <t xml:space="preserve">行程推荐及推荐日程完成，"上次互动"需要讨论,work_date是不是取当天日期而不是传参
 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>custId</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>分数可以抽出，标签需要关联</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok，画面需要调整</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -984,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1046,7 +1055,7 @@
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>12</v>
@@ -1071,7 +1080,7 @@
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>16</v>
@@ -1119,7 +1128,7 @@
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>25</v>
@@ -1220,7 +1229,7 @@
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>40</v>
@@ -1243,10 +1252,10 @@
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I11" s="7"/>
     </row>
@@ -1259,17 +1268,17 @@
         <v>44</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>43</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>45</v>
@@ -1283,18 +1292,20 @@
         <v>46</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
+      <c r="G13" s="9" t="s">
+        <v>98</v>
+      </c>
       <c r="H13" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I13" s="9"/>
     </row>
@@ -1304,18 +1315,20 @@
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9" t="s">
-        <v>49</v>
       </c>
       <c r="I14" s="9"/>
     </row>
@@ -1325,11 +1338,11 @@
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
@@ -1344,16 +1357,18 @@
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
+      <c r="G16" s="9" t="s">
+        <v>105</v>
+      </c>
       <c r="H16" s="9" t="s">
         <v>40</v>
       </c>
@@ -1365,16 +1380,16 @@
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="7" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
     </row>
@@ -1384,16 +1399,16 @@
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
     </row>
@@ -1402,21 +1417,21 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>82</v>
-      </c>
       <c r="E19" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
     </row>
@@ -1425,19 +1440,19 @@
         <v>12</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I20" s="9"/>
     </row>
@@ -1447,16 +1462,16 @@
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I21" s="9"/>
     </row>
@@ -1466,16 +1481,16 @@
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I22" s="9"/>
     </row>
@@ -1485,16 +1500,16 @@
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I23" s="9"/>
     </row>
@@ -1504,16 +1519,16 @@
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I24" s="9"/>
     </row>
@@ -1523,16 +1538,16 @@
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I25" s="9"/>
     </row>
@@ -1581,7 +1596,7 @@
     </row>
     <row r="7" spans="2:11" ht="15">
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1595,10 +1610,10 @@
     </row>
     <row r="8" spans="2:11" ht="15">
       <c r="B8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1607,16 +1622,16 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="2:11" ht="15">
       <c r="B9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1625,7 +1640,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K9" s="1"/>
     </row>
@@ -1639,7 +1654,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K10" s="1"/>
     </row>
@@ -1647,7 +1662,7 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1661,10 +1676,10 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1677,10 +1692,10 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1706,7 +1721,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1720,10 +1735,10 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1736,7 +1751,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -1751,7 +1766,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1765,7 +1780,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1779,7 +1794,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>

--- a/document/灵豹智能画面接口开发列表.xlsx
+++ b/document/灵豹智能画面接口开发列表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chokkint/Documents/HBuilderProjects/LBAI/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E79340B-DEB6-A845-92B0-A905E3F2CE2B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29BF73E-2BBF-6641-ADD9-C378B11E3C9E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -994,7 +994,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>

--- a/document/灵豹智能画面接口开发列表.xlsx
+++ b/document/灵豹智能画面接口开发列表.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10309"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chokkint/Documents/HBuilderProjects/LBAI/document/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBuilderProjects\LBAI\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29BF73E-2BBF-6641-ADD9-C378B11E3C9E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="接口列表" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="109">
   <si>
     <t>序号</t>
   </si>
@@ -504,11 +503,25 @@
     <t>ok，画面需要调整</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>忽略推荐行动</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>action_id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_CODE:SUCCESS/ERROR
+ERROR_MESSAGE:...
+DATASET:[]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10">
     <font>
       <sz val="11"/>
@@ -582,7 +595,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -592,6 +605,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,7 +642,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -653,6 +672,21 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -671,7 +705,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -746,23 +780,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -798,23 +815,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -990,23 +990,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.36328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="39.36328125" style="3" customWidth="1"/>
     <col min="3" max="3" width="61" style="3" customWidth="1"/>
-    <col min="4" max="4" width="32.1640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" style="3" customWidth="1"/>
-    <col min="6" max="7" width="40.33203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="73.6640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="41.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="32.1796875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="25.36328125" style="3" customWidth="1"/>
+    <col min="6" max="7" width="40.36328125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="73.6328125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="41.453125" style="3" customWidth="1"/>
     <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -1037,7 +1037,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="48">
+    <row r="2" spans="1:9" ht="45">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:9" ht="48">
+    <row r="3" spans="1:9" ht="45">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" ht="48">
+    <row r="4" spans="1:9" ht="45">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1110,7 +1110,7 @@
       </c>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9" ht="48">
+    <row r="5" spans="1:9" ht="45">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" ht="48">
+    <row r="6" spans="1:9" ht="45">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1154,7 +1154,7 @@
       </c>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:9" ht="48">
+    <row r="7" spans="1:9" ht="45">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:9" ht="48">
+    <row r="8" spans="1:9" ht="60">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1192,7 +1192,7 @@
       </c>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:9" ht="48">
+    <row r="9" spans="1:9" ht="45">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9" ht="64">
+    <row r="10" spans="1:9" ht="60">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" ht="49">
+    <row r="11" spans="1:9" ht="46">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" ht="49">
+    <row r="12" spans="1:9" ht="47">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1284,185 +1284,183 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="64">
-      <c r="A13" s="6">
+    <row r="13" spans="1:9" s="15" customFormat="1" ht="47" customHeight="1">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="1:9" ht="60">
+      <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B14" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="I13" s="9"/>
-    </row>
-    <row r="14" spans="1:9" ht="48">
-      <c r="A14" s="6">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>82</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="I14" s="9"/>
     </row>
-    <row r="15" spans="1:9" ht="48">
+    <row r="15" spans="1:9" ht="45">
       <c r="A15" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="E15" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="G15" s="9" t="s">
+        <v>104</v>
+      </c>
       <c r="H15" s="9" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I15" s="9"/>
     </row>
-    <row r="16" spans="1:9" ht="48">
+    <row r="16" spans="1:9" ht="45">
       <c r="A16" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>83</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F16" s="9"/>
-      <c r="G16" s="9" t="s">
-        <v>105</v>
-      </c>
+      <c r="G16" s="9"/>
       <c r="H16" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I16" s="9"/>
     </row>
-    <row r="17" spans="1:9" ht="48">
+    <row r="17" spans="1:9" ht="45">
       <c r="A17" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="10"/>
+        <v>50</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="E17" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
+      <c r="G17" s="9" t="s">
+        <v>105</v>
+      </c>
       <c r="H17" s="9" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I17" s="9"/>
     </row>
-    <row r="18" spans="1:9" ht="48">
+    <row r="18" spans="1:9" ht="45">
       <c r="A18" s="6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="7"/>
+        <v>51</v>
+      </c>
+      <c r="D18" s="10"/>
       <c r="E18" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
     </row>
-    <row r="19" spans="1:9" ht="48">
+    <row r="19" spans="1:9" ht="45">
       <c r="A19" s="6">
-        <v>18</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>55</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B19" s="6"/>
       <c r="C19" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>81</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I19" s="9"/>
     </row>
-    <row r="20" spans="1:9" ht="48">
+    <row r="20" spans="1:9" ht="45">
       <c r="A20" s="6">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" s="8"/>
+        <v>80</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="E20" s="7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="I20" s="9"/>
     </row>
-    <row r="21" spans="1:9" ht="48">
+    <row r="21" spans="1:9" ht="45">
       <c r="A21" s="6">
-        <v>13</v>
-      </c>
-      <c r="B21" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="C21" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="7" t="s">
@@ -1471,85 +1469,104 @@
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I21" s="9"/>
     </row>
-    <row r="22" spans="1:9" ht="48">
+    <row r="22" spans="1:9" ht="45">
       <c r="A22" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="D22" s="8"/>
       <c r="E22" s="7" t="s">
         <v>85</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I22" s="9"/>
     </row>
-    <row r="23" spans="1:9" ht="48">
+    <row r="23" spans="1:9" ht="45">
       <c r="A23" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" s="8"/>
+        <v>88</v>
+      </c>
+      <c r="D23" s="7"/>
       <c r="E23" s="7" t="s">
         <v>85</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I23" s="9"/>
     </row>
-    <row r="24" spans="1:9" ht="48">
+    <row r="24" spans="1:9" ht="45">
       <c r="A24" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" s="10"/>
+        <v>89</v>
+      </c>
+      <c r="D24" s="8"/>
       <c r="E24" s="7" t="s">
         <v>85</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I24" s="9"/>
     </row>
-    <row r="25" spans="1:9" ht="48">
+    <row r="25" spans="1:9" ht="45">
       <c r="A25" s="6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D25" s="7"/>
+        <v>90</v>
+      </c>
+      <c r="D25" s="10"/>
       <c r="E25" s="7" t="s">
         <v>85</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I25" s="9"/>
+    </row>
+    <row r="26" spans="1:9" ht="45">
+      <c r="A26" s="6">
+        <v>17</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="I25" s="9"/>
+      <c r="I26" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -1559,14 +1576,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="5" spans="2:11" ht="15">
       <c r="B5" s="1"/>
@@ -1829,5 +1846,6 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>